--- a/biology/Médecine/1487_en_santé_et_médecine/1487_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1487_en_santé_et_médecine/1487_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1487_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1487_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1487 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1487_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1487_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Août : première mention de l'usage d'une ambulance, au siège de Malaga par les Rois catholiques[1].
-La compagnie des barbiers chirurgiens de Londres prend des mesures contre ceux de ses membres qui emploient trop d'apprentis ou de suppléants[2].
-Fondation de la compagnie des barbiers chirurgiens d'Exeter, en Angleterre[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Août : première mention de l'usage d'une ambulance, au siège de Malaga par les Rois catholiques.
+La compagnie des barbiers chirurgiens de Londres prend des mesures contre ceux de ses membres qui emploient trop d'apprentis ou de suppléants.
+Fondation de la compagnie des barbiers chirurgiens d'Exeter, en Angleterre.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1487_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1487_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Première édition, imprimée à Padoue en hébreu, du « Guide du médecin » (Manhig ha-Rof'im) d'Isaac Israeli (c. 850 -c. 940 ), texte dont l'original arabe est perdu[3].
-Première édition du traité De urinarum iudiciis de Barthélemy de Montagnana (1380-1460), sur les presses de Mattheus Cerdonis de Vindischgrecz à Padoue[4].
-Première édition de l'Articella, recueil de traités de médecine pratique tirés de Johannitius, Hippocrate, Théophile, Philarète et Galien et traduits en latin au XIe siècle par Constantin l'Africain[5].
-Impression en un seul volume de trois traités de médecine de Sigismond Albicus (c. 1360 -1427) : la Praxis medica, le Regimen sanitatis et le Regimen pestilentiae[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Première édition, imprimée à Padoue en hébreu, du « Guide du médecin » (Manhig ha-Rof'im) d'Isaac Israeli (c. 850 -c. 940 ), texte dont l'original arabe est perdu.
+Première édition du traité De urinarum iudiciis de Barthélemy de Montagnana (1380-1460), sur les presses de Mattheus Cerdonis de Vindischgrecz à Padoue.
+Première édition de l'Articella, recueil de traités de médecine pratique tirés de Johannitius, Hippocrate, Théophile, Philarète et Galien et traduits en latin au XIe siècle par Constantin l'Africain.
+Impression en un seul volume de trois traités de médecine de Sigismond Albicus (c. 1360 -1427) : la Praxis medica, le Regimen sanitatis et le Regimen pestilentiae.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1487_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1487_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1475-1487 : fl. John Denyse, chirurgien, un de ceux qui accompagnent le roi Édouard IV lors de son expédition en Normandie et en France[7],[8].
-1487-1520 : fl. Jean de Louvegny († 1520), maître apothicaire à Amiens[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1475-1487 : fl. John Denyse, chirurgien, un de ceux qui accompagnent le roi Édouard IV lors de son expédition en Normandie et en France,.
+1487-1520 : fl. Jean de Louvegny († 1520), maître apothicaire à Amiens.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1487_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1487_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,11 +625,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Jean Gonthier d'Andernach (mort en 1574), médecin et anatomiste allemand, professeur à Paris et médecin ordinaire de François Ier, puis praticien à Metz et Strasbourg[10].
-Jean Megobacch (mort en 1555), médecin allemand, reçu docteur à Padoue, professeur à Marbourg et médecin de Philippe Ier, landgrave de Hesse[11].
-Niclaus Werenfels (mort en 1561), apothicaire à Bâle[12].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jean Gonthier d'Andernach (mort en 1574), médecin et anatomiste allemand, professeur à Paris et médecin ordinaire de François Ier, puis praticien à Metz et Strasbourg.
+Jean Megobacch (mort en 1555), médecin allemand, reçu docteur à Padoue, professeur à Marbourg et médecin de Philippe Ier, landgrave de Hesse.
+Niclaus Werenfels (mort en 1561), apothicaire à Bâle.</t>
         </is>
       </c>
     </row>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1487_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1487_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,13 +659,15 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>François Bencius (né à une date inconnue), professeur de médecine à Padoue, fils de Hugues Bencius († 1438), médecin également[13].
-Panfilo Castaldi (it) (né vers 1430), médecin et imprimeur italien[14].
-Walter Lemster (né en 1444), médecin d'Elizabeth Stafford, duchesse de Norfolk (en), puis des rois Richard III et Henri VII[15].
-Vers 1487 : Bernardo de Granollachs (ca) (né en 1421), médecin et astrologue catalan, professeur à l'université de médecine et d'arts de Barcelone (ca)[16],[17].
-Entre le 25 décembre 1485 et le 14 mars 1487 : Fernand de Cordoue (es) (né en 1421), philosophe et humaniste espagnol, professeur de médecine à Bologne en 1447-1448[18], auteur d'un traité sur les urines[19] et d'une somme de chirurgie[20].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>François Bencius (né à une date inconnue), professeur de médecine à Padoue, fils de Hugues Bencius († 1438), médecin également.
+Panfilo Castaldi (it) (né vers 1430), médecin et imprimeur italien.
+Walter Lemster (né en 1444), médecin d'Elizabeth Stafford, duchesse de Norfolk (en), puis des rois Richard III et Henri VII.
+Vers 1487 : Bernardo de Granollachs (ca) (né en 1421), médecin et astrologue catalan, professeur à l'université de médecine et d'arts de Barcelone (ca),.
+Entre le 25 décembre 1485 et le 14 mars 1487 : Fernand de Cordoue (es) (né en 1421), philosophe et humaniste espagnol, professeur de médecine à Bologne en 1447-1448, auteur d'un traité sur les urines et d'une somme de chirurgie.</t>
         </is>
       </c>
     </row>
